--- a/bin/Debug/netcoreapp2.2/QLTKDN_Mau-chuyen-tien-cho-tai-khoan-nhan-vien.xlsx
+++ b/bin/Debug/netcoreapp2.2/QLTKDN_Mau-chuyen-tien-cho-tai-khoan-nhan-vien.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Mẫu file" sheetId="1" r:id="R8dceb789bf314d33"/>
+    <sheet name="Mẫu file" sheetId="1" r:id="Rbe38812490ff4e10"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -1002,17 +1002,17 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="whole" sqref="D9:D44" operator="lessThanOrEqual" allowBlank="1" errorStyle="stop" error="Tổng số tiền muốn chia phải nhỏ hơn số dư của giao dịch" errorTitle="Cảnh báo" showErrorMessage="1" xr:uid="{F27578DB-A9BD-4C12-8D6C-EA2DDDFB4078}">
+    <dataValidation type="whole" sqref="D9:D44" operator="lessThanOrEqual" allowBlank="1" errorStyle="stop" error="Tổng số tiền muốn chia phải nhỏ hơn số dư của giao dịch" errorTitle="Cảnh báo" showErrorMessage="1" xr:uid="{EFCF23FC-45DC-4805-8615-E544F663F051}">
       <formula1>=$C$2</formula1>
     </dataValidation>
-    <dataValidation type="whole" sqref="E9:E44" operator="lessThanOrEqual" allowBlank="1" errorStyle="stop" error="Tổng số tiền muốn chia phải nhỏ hơn số dư của giao dịch" errorTitle="Cảnh báo" showErrorMessage="1" xr:uid="{08DEE9CA-E396-4AF6-A5AF-7CB9D35C09D0}">
+    <dataValidation type="whole" sqref="E9:E44" operator="lessThanOrEqual" allowBlank="1" errorStyle="stop" error="Tổng số tiền muốn chia phải nhỏ hơn số dư của giao dịch" errorTitle="Cảnh báo" showErrorMessage="1" xr:uid="{55E9748C-E5CB-4C9E-BA3E-864AE2020CA7}">
       <formula1>=$C$3</formula1>
     </dataValidation>
-    <dataValidation type="whole" sqref="F9:F44" operator="lessThanOrEqual" allowBlank="1" errorStyle="stop" error="Tổng số tiền muốn chia phải nhỏ hơn số dư của giao dịch" errorTitle="Cảnh báo" showErrorMessage="1" xr:uid="{BA81E245-48BF-40D6-B3D1-0B7A53D62D51}">
+    <dataValidation type="whole" sqref="F9:F44" operator="lessThanOrEqual" allowBlank="1" errorStyle="stop" error="Tổng số tiền muốn chia phải nhỏ hơn số dư của giao dịch" errorTitle="Cảnh báo" showErrorMessage="1" xr:uid="{768EC0DC-0974-453E-8A50-4B6821324454}">
       <formula1>=$C$4</formula1>
     </dataValidation>
   </dataValidations>
   <headerFooter/>
-  <legacyDrawing r:id="Rc6d6245fecbc4a6d"/>
+  <legacyDrawing r:id="R1f8dadbb3ce04e9e"/>
 </worksheet>
 </file>